--- a/반은숙/김세화근무기록.xlsx
+++ b/반은숙/김세화근무기록.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:W988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" ref="G4:G6" si="0">F4-E4</f>
+        <f>F4-E4</f>
         <v>0.25694444444444442</v>
       </c>
       <c r="H4" s="16"/>
@@ -731,7 +731,9 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="11">
+        <v>60000</v>
+      </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="13">
@@ -741,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G4:G6" si="0">F5-E5</f>
         <v>0</v>
       </c>
       <c r="H5" s="12"/>
